--- a/diaries/diary-junxian-chen.xlsx
+++ b/diaries/diary-junxian-chen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Repos\swe265p-reveng\swe265p-w2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8B0231-4A9F-4EC3-AC54-49724C42B336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E88863-CF09-4F1C-8A9B-EB225E4D79BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -656,7 +656,62 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Eric and Michael were very passionate, and funny. When the code was first printed on the screen, I thought it looked like JavaScript because it used "require", which was the keyword that NodeJS used for importing library. But there were also something strange like "local" and "if...then...end", then I was sure that was not any language I had met before. The answer was Lua. I saw the word Lua sometimes in game development or hardware environment, but did not know its syntax. Now I know Lua can run on this device HackRF One to write Software Defined Radio which is really cool. It is like a programmable wireless toolbox.</t>
+    <t>Andre</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Review last week's homework;
+2. Learn 3 more KEPs;
+3. Learn about advanced topics</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-11pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete homework 6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished report for existing test cases and new test cases. Still figuring out our second pull request.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished coding for our second pull request.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eric and Michael were very passionate, and funny. When the code was first printed on the screen, I thought it looked like JavaScript because it used "require", which was the keyword that NodeJS used for importing library. But there were also something strange like "local" and "if...then...end", then I was sure that was not any language I had met before. The answer was Lua. I saw the word Lua sometimes in game development or hardware environment, but did not know its syntax. Now I know Lua can run on this device HackRF One to write Software Defined Radio which is really cool. It is like a programmable wireless toolbox.
+Next week we will have finals so homework 6 will be postponed.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned KEPs and advanced topics;
+Talked with Andre after class.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Although not very helpful in understanding the code, the videos that visualized the history of open-source projects were quite impressive. It was very interesting to see how projects like BitCoin and MineCraft grow in such a pleasant way.
+Another useful thing was git blame. With git blame we can check the history of a certain line. As implied by its name, we can easily locate and blame the author of some bad code with git blame.
+Finally Zihua and I had some chat with Andre. We learned that the beauty of different teams choosing different projects was the introduction of diversity. We should turn this unforgettable experience into our strength when having interviews.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We analyzed three existing test cases and wrote another three new test cases. By studying test cases we understood the usages of different classes in Realm. For example, because Realm is cross-platform mobile database, Android devices should be able to read ".realm" files generated by iOS devices. We used configFactory#copyRealmFromAssets to load ".realm" files, and tested iOS data types with mixed values.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our first pull request got merged today, which is the 12th days after it was created. During this process we experienced the real-world open-source environment. When contributing, it will not always go smoothly because maintainers may have strict project standards. In our case, we forgot to write new test cases for our code changes. So it took some time for us to fix the test cases and communicate. Then there was a gap of 10 days when we received no further replies. We understand that our issue had lower priority.
+In our second pull request we need to add new features for RealmQuery, i.e. findFirst(int), findLast(int) and findRandom(int). We first drew the call graph of two existing methods of RealmQuery, findFirst() and findAll(). We found that these two methods were strongly related to RealmResults, which implemented Java List interface. We were aware that our solutions might not be perfect, but we had confidence that they would work as expected.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9am-8pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1189,21 +1244,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="46.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="112.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="98.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -1293,7 +1348,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="51.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1362,7 +1417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="62.95" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>20200116</v>
       </c>
@@ -1385,7 +1440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="62.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="47.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20200119</v>
       </c>
@@ -1408,7 +1463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="47.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>20200121</v>
       </c>
@@ -1431,7 +1486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="313" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="268.64999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>20200124</v>
       </c>
@@ -1454,7 +1509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="145.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="125.85" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>20200128</v>
       </c>
@@ -1477,7 +1532,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="78.650000000000006" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20200129</v>
       </c>
@@ -1500,7 +1555,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="157.35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="173.05" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20200130</v>
       </c>
@@ -1523,7 +1578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="251.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="110.15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20200130</v>
       </c>
@@ -1546,7 +1601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="60.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20200204</v>
       </c>
@@ -1592,7 +1647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="101.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="78.650000000000006" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20200206</v>
       </c>
@@ -1615,7 +1670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="399.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="125.85" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20200213</v>
       </c>
@@ -1638,7 +1693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="232.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="78.650000000000006" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20200218</v>
       </c>
@@ -1661,7 +1716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="94.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20200219</v>
       </c>
@@ -1684,7 +1739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="188.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="208.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>20200219</v>
       </c>
@@ -1707,7 +1762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="161.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="78.650000000000006" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20200220</v>
       </c>
@@ -1730,7 +1785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="157.35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="183.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>20200220</v>
       </c>
@@ -1753,7 +1808,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="128.30000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="62.95" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>20200221</v>
       </c>
@@ -1776,7 +1831,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="366.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="267.45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>20200222</v>
       </c>
@@ -1799,7 +1854,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="62.95" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>20200225</v>
       </c>
@@ -1822,7 +1877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="62.95" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>20200226</v>
       </c>
@@ -1845,7 +1900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="153.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="125.85" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>20200227</v>
       </c>
@@ -1868,7 +1923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="153.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>20200229</v>
       </c>
@@ -1891,7 +1946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="393.3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>20200304</v>
       </c>
@@ -1914,7 +1969,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="186.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="157.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>20200305</v>
       </c>
@@ -1931,42 +1986,86 @@
         <v>140</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="2"/>
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="182.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>20200312</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="112.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>20200315</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>20200316</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1999,753 +2098,6 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="11"/>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="11"/>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="11"/>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="11"/>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="11"/>
-    </row>
-    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="11"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="11"/>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
